--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/22_Çanakkale_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/22_Çanakkale_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90ADC60-1D7A-4C26-A876-8161247A2772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F64E8813-F71C-4F96-BF01-F248DED3D5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{0EE5C002-3B2B-4A35-91B7-ABD41D8C5491}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{F289A739-B95F-407B-8928-375246E0279B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{11AD122E-3CCD-4AE2-AE56-3B3A2723E740}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7295DED6-D2F2-426A-BDDF-8CADC41DCE7F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{5BADDDF8-6918-440D-9FD3-8EC6CBD50609}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9FFBB931-8C99-425A-B935-6350524E122E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{38963EB8-DF30-44D4-AE7F-B095BBAB66BE}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{64A89234-ABD9-47FE-B8DD-231E35EDAE7A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C6D31310-A51C-40F2-8723-AD258B18D30F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E8D4C91E-5A56-4FBF-81B4-D15329B0E7F2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5B1755C0-5E97-4D78-9D29-023669B71E60}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{82A5A6EB-4C66-439D-9F56-43AD3DC02A42}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CE7216A6-7935-48CF-AFEE-48CF072181BF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{541B8451-901B-4A95-9E5E-E6D27AD37B83}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{56700D03-372E-4F52-9043-6C9EFF4145CA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{31BD228A-AEEE-4183-86B2-7541973D799C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D7EFE1-8D35-4069-B5F2-3DEAF1D7EFB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8397FE7-4680-4F71-89F5-5CF185F7D2D6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2566,18 +2566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95521B48-8346-4068-985C-64D38C9CC994}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA4D2504-69CB-4EFC-BD8B-D6019FFDC41A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2DE9EF1F-B2BE-4157-846D-1493A6F0B580}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7345003-3E83-42E4-9302-79B06A1E2EEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8FBCE40-F1F2-42D5-B06F-211F65B58167}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{514315F5-8AF1-4BD7-B05D-970B5D787E77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83A26B70-718C-4BC3-A3A4-9DBB4BCE9EBB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D9E6750-C43C-4B10-9EAB-9CE0277DEF67}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DE371E8-9C8A-410D-8A98-04D25710D098}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7EB65D14-B0FE-4DDF-BC6E-129CB6316621}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7971A5B4-61C9-4B04-9D8E-292A75A0C13E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3D79E6D-F3CA-4CB3-91C0-201ABE85DEC0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01126E49-0305-4C43-B4CE-6121974B1EE5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{536BEE6E-082F-4A4E-94A7-D33BD5101475}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82307168-4EC7-4408-AF26-69F6AC98F48F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EFA5D08A-A850-4DAE-AFA7-1BA5678F4299}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C15E009-2537-49F3-8D94-A063ABC75966}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40B1A9B8-5E9F-47D0-B2D7-B4AAF05411A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B120560-7C3D-4141-96BF-5FD17B915D14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B5A6651-D5A6-49AD-87E4-D30DAD980DD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC49F787-56C3-4AF6-961B-6B9D5EC00E2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9AB88B38-E329-4DF7-B0C7-A43A1FFE51E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A401E0AD-5917-4903-957C-B2DD37A1941E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E5BEC92-5B20-40B9-BD2E-624ECB52F333}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2590,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3EAC49-B53A-4B83-9287-9AA246A939F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB795DCA-A7A3-4B16-9976-B186808402EB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3822,18 +3822,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B212ED0-E7F9-4AB2-9861-9557E4BA3CD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D6D264F-C2C7-441F-BED7-0F38066F40DD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{079ACACF-7198-46DE-A192-C49C7C4EDB41}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0E6EDA0B-E4E8-4136-899F-AB542DA4BB5D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB48BF2B-0B6D-4681-A498-7BB8BD33EAD5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC4372DA-E23D-48F4-A67C-55491FCE8B89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB9EF323-FE71-49E3-88A3-8B0AD66383BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD4F3944-B249-4093-92B3-AA120E48C58C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BFCA63B-B4CC-4569-A05B-0AED42CA004D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DCED9F7-846E-464A-ABAC-5EE893B493DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AA3DA14-40E1-4CE7-9DC6-49846E0D8218}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06FFDA24-77EA-4CF1-8742-10D690D8A76E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{548A335E-D027-4A29-B0F0-1150E7CAC637}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4E12C68-68C4-4205-A4E7-D22AC8DB1729}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFED8BED-B7DA-4895-9558-BC533B5CC2AD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{399B0E2C-63DD-4BF3-B27B-849C568630BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9899A54D-FD8C-4065-B5D9-A3D59955BD2B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E679C5B3-CCAA-4E6A-989E-0141F06805FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{336FC906-6E2D-4833-A675-A584FEBF737C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2DFE996-848A-4E2E-90F4-69302A1E44EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{395F8BF1-40B3-4337-B8B4-D00FF605023D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18A9BD01-11E3-4023-BC16-BFDA940A01A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3795C76-8763-4247-9278-512EC6C82EF4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96BB2356-FDC3-450F-9592-1D1D7628786C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3846,7 +3846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA82018-283C-4EA9-A27B-833FCAE38D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08864274-764F-4361-AD51-F4AC8607636B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5074,18 +5074,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A777D8BE-CA59-4CB5-A4B1-D3C05B7BB95E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9B697CC-8F5B-4870-8B72-C9084598B1F0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{81D7F9F1-E9C3-4C05-B4DA-4EF7F8E95ED5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F7178FED-5C66-4273-A6E2-776674E0182A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE97F7E3-F34E-42F5-9A73-02B0AF4DCDAB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C30D8C3-1540-4F39-8BFB-BE7107045E57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A37FF8F2-D27A-411E-8D0C-963D7F0380B9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B495B98E-152C-4006-8EF7-CD149178CF35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CBCBEFCF-6A80-45F1-AF4D-0510ADDC6468}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{061D1128-104D-41E9-B9ED-1B0C15AE3545}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{278BB65B-EE0E-4815-82B7-08709F452AF5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0255247A-32AD-45A9-92D4-F5BBB481ABDD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6053568E-8872-43B5-BFFF-344ADB4AB03A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E6CC29E-60A3-484C-9C2B-A25C8C54403E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B0BA29D6-2150-4B2D-8D77-1C809CB44B7F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29327205-C584-49B1-BB64-D8F1274008EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE4FDA30-FDAC-4A16-BCC1-487115B36898}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55E258DD-77AD-4BCC-B767-75C47F3DDBF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56279E73-7A1C-4B43-BB54-8D30B1DC7D33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{026FFDAE-19B4-4186-BF3E-8AFA445ACED1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D42AE692-CBD6-49DC-A806-9DBAB8F2E4D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54787C92-D8A8-4FD6-A52C-0FCC2856D929}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1034ED5-BD19-4318-8885-007B6EBEC080}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BFA4D5D-7C50-4D49-A358-F04DE1CD56B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5098,7 +5098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA28BC2C-AED2-4786-A2D5-B1BA1B053351}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D129237E-56A7-4754-9FF9-2C2F2079CE7D}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6322,18 +6322,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7DA826B4-8DBB-4EC6-B7B2-7073BDFA629D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36DD90D3-8A32-4679-8CD2-FDDB07568709}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F472C472-3706-4A54-9A1A-4B177AF2D6D5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC8C7B1B-A460-4C97-AB08-DC3294F01DA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD559872-D4B4-4CDF-9F33-4431D02BFD2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{398E5087-0B86-46F0-8D58-5FD00E0C1978}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB9DD60C-3D14-4183-BDCB-199E3597BD93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46C753D8-5B62-4791-B1D0-0FF5975AEB42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{485FA0C2-8EC1-4C96-8ECB-C08E3A2ACA83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{725B3622-CD16-4404-9025-A36CF48F378E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BCBF928-EF4A-476C-9AAD-9B2FFB93E214}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E9D3C0F-C3AB-4E4F-B9E5-2F991EC38CD8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CBA7CAD-9DC8-4EE4-BCEB-52A5A8F74C46}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30928723-044D-493C-ABAE-A41E3C7759DB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05EA3DBC-E915-476A-9AD5-A4F0435F419F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{98089EA3-8A20-442B-92CC-B6563830D08A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B233D796-268E-4DA3-882D-D137240C4119}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{787A6A03-8C65-442F-AE69-53EABC4DA75B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94B1737A-FEA3-4191-802C-7B523274B6B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A676019-E412-4D54-9301-93E3C3E52605}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{525A2A9F-D1B4-4F15-94CB-3F3529EE772C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B49249F0-3A24-49DD-BB75-7CAE53AB0E4B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D9D18A4-A072-4561-98D6-7571FD528DBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4FC1371-2F75-4AE6-AD8B-1EAEA2C3ACEB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6346,7 +6346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF0209A-D401-4421-AC38-23B54062ED85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7EB732-3C11-4D2A-A43D-4AF9A02B954A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7599,18 +7599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77E26BC2-8048-491B-BE91-DE8569A69D23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63EF16BD-195A-49F3-B037-C61124074E47}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DBEE4233-71CF-44DB-8D96-90604196A1E1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D446A1DF-C888-4205-9888-1F97D8E5BF7C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{669C16E5-BD96-4317-9632-F25B3D9C6258}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B9F32D0-5602-4F31-8109-16712166A783}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA759087-C34D-4AFD-83CD-59CF8522568E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96595599-3763-4181-8737-97A4A5C33872}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E517726C-729B-4553-B207-E0A92824AB1B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E44FE882-B0A5-4089-BEBC-7951C292FC9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{728AB1C9-A174-4EBD-AF5D-2A8392CA0BD1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69AB9B93-C70A-4663-8D74-EA50105A6233}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36841D6C-63AF-440A-8A67-FCE6E7BACB23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD1D5D38-A5FB-4106-B6DF-8B1EE77AE0F2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{60373646-5260-4BB9-82CE-86D94572E7C9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB751A1C-2DF1-4CBC-A1A4-ACEA10DAED9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5199E957-EA1F-483C-9B20-D59BB893265B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A697D69-27B5-4809-8884-9DEBC5621D56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96317471-4A10-465F-8281-421B383CCCA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04D33B26-728A-471C-8B7F-1E7375FCE7DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B59B3A9-4A7C-40D8-A38B-F26C22FE604B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7616D3E-D4D2-44CA-8AAD-2CBD7CBA4E69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DB95606-5CCA-409C-96F5-E3E284BFEBBA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{130BCB6B-82AF-4C3B-BF48-EFC30F0ECBC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7623,7 +7623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4A19D8-CB27-476D-905E-398B7B2869ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BACACB-506D-4C78-B1FC-904C2B0C702D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8880,18 +8880,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBD538F6-2EBA-4F93-A9DF-39F3E4841C34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A622444E-1E2F-418B-B94F-DB83FF78609D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B3B48D2-0261-4BD8-A172-5AE0B5D6535B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75DD174E-8561-4630-9E3D-857EEA0E4DD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED379991-4F0B-45F7-A1EF-BB16DE810774}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7CF7BEE-D64E-4EC1-AEB9-EA6E54B0588A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{320CA441-1C2D-4EC1-BA14-C35683CD9EBD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60773229-ED25-45E1-9AB1-4EF3D06CE85F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C922A5BA-2E26-4555-81E5-6CC806C07403}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4CB19759-7822-432F-9B80-AC05D2A9A4CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55D512D9-436D-4DC4-A985-9B008095780E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4AF3F3F-5FAD-4CDF-A4C1-BCFFDF0F6707}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CC7B492-214B-4146-9507-9134099CE210}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D188080-8E6A-48AF-B79A-1E16922FB1BC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C44A7D1E-E6AF-4F64-BB4B-66C2180AA214}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A31E1794-51D4-402F-B558-35E7677212A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF4A714B-6FDC-4C9F-BEAE-38729D87660C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{051915C2-DB56-400E-AA87-FD8221B83513}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A53FC9E-28E7-485A-B3FC-59F0F253CCE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08B4AF04-BA3C-418B-9817-02743946C359}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69899E16-0B40-40BA-82FA-1AF0C9B198A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B79674E-C155-4FB8-B638-424507CD4BE5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D882689-13D4-4A3D-B11C-625495917A7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{84B22146-5AF7-4073-800C-556CEECD1AC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8904,7 +8904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709DADD2-3050-410B-8732-39EC4E06D14F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5DAFBC-C0FE-411B-BF27-92F73A7D9BE4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10161,18 +10161,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{501FD5FB-B091-4207-AAFB-D4BD55237264}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1C0A47F-C791-499F-BA80-B401A2C509F5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{557082D3-427F-4798-BF3F-4F15F2262C83}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8839DFF7-3620-447F-AFE6-90667A193FCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F21AE10B-71FF-4E4C-BD92-D82DB86BB997}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04170A87-4189-4218-A051-09D772CA0F65}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{689CA979-67FB-4466-B581-92997BC2045E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5914C519-A8AB-4554-B200-5A5091281D51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CA7A7D7-A281-4E67-8AAC-F3B91089C7DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{41C9FAD9-A7BA-4E9C-8759-84B5913CD479}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DE7E876-EAA6-485D-9CD6-47B455F54046}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{137D1B94-E4ED-4C74-9CF3-CECE687E7FAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F14BD3F-04CD-4CC5-A89E-07F656F74EB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E71EB0C5-F831-465A-88B3-93C473D5BEB3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{719A116D-4B7E-4E63-B6A0-5C72A7537E4D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25954D63-C983-4E83-BCA6-65F7D91CEC73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC8F261C-91AC-4CA0-ADE6-BF32D7489189}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5006D175-6178-4B09-B986-06531CE41A6D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D300402-8B12-4798-9565-765244F14DF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADC810E6-1AFB-4903-AAD9-9F58E06489FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{772CAEB3-A61C-4738-AA02-FDD775B88D65}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2D6EBF08-7157-40EB-921F-B72BF3D3F135}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5643D20-1044-408E-B9EF-402D35CB4CC9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2C2D1A3-B12B-4C73-8057-103929E77EEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10185,7 +10185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30760262-8C36-4279-B29C-B9179AB1DA2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4738E3-84A9-44EB-9AED-6B7CDE2FEA83}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11438,18 +11438,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A8B0B08-4E84-45D1-82AB-75E00E066B9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BEE02F9-D1B9-462B-960A-BDD03281B247}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D67F037F-DA41-4075-9343-D992C2CCD92F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E3924DB-5DD0-46E6-A03F-E8CADF1AC5D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DF16EDE-5607-40A9-94A4-1815616FAC80}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34597EE2-CFE3-4CC5-A8A2-79682B2059E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DCCF938-D8FE-4BE4-B63F-A8DA4D33B4FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B94DD78-A501-4D3F-B99B-EE54D0AF554E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{551C88C9-BD2C-4AA1-AF5B-CD1E80F59BF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1868ACF0-63BA-40EE-9D54-49E5A05CEB1B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D9308A7-9653-4A41-8000-42DA922A64BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F01B4BF3-1E61-4672-A645-5F074B0DA095}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AB291A5-92F7-449E-9B9C-6875F1BD39A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A214F4F-D2E2-4B3B-9AEF-574BCE38C254}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{802B3EF1-78CE-4146-B8CF-7168BEA5289B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D78A9A58-3E5F-4C4B-9DB1-172A152F3F0D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5F4206B-CA69-4295-91A0-CD07BC5B8168}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B4D8169-8BF7-4B09-885A-B362D468C6BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A81A1291-FCD9-4BE5-9A1D-ABC41EE404A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E8D2436-588E-48D6-A6ED-718592C3D88F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7C20FA5-413F-4411-A2FB-5A0F6F51B456}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7505A06D-47EF-430C-92A8-5529A97A75A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BBAADB9-8D40-4837-93D7-B73BB179ECC9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E1ADDDE-593B-41A8-ABDC-381B52778695}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11462,7 +11462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA22BC6-359A-4B8D-9ED4-DEB2A8860956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8241ED19-DCCE-46BA-8CDB-027DFAD88546}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12715,18 +12715,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5229158E-0E05-4278-A42C-58A63985B944}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FC9FD34-B971-476F-95A3-F74FCCEF67D9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5DE991F9-A4BA-4FC2-9AAA-C2DECC8DBB35}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D5FDF065-92A8-42C0-83E8-59329061874E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26128A50-D4C8-41A7-8118-22181D5120A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8925C330-4056-4222-8734-C371471D9B10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5CA9209D-9BCE-4E9A-8D1B-60D469673101}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B30420F7-E054-4BF4-B275-6BAA45BA376E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D21B3A2-3232-4031-994F-6DA3794D1A0C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7A0C936-A8CA-4049-9386-101CAA954A5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B90AD6B-D68E-4828-9F92-9E5E58847118}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEC47A3A-D736-4F12-8F0F-82758165369D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E446B3AD-8C4B-4FC0-B07A-95B11A6F381F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8929197A-4AE1-42F9-A137-9F49715E439A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1A834B52-0B1A-46C8-9F10-AA326C8E81A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD00F177-05DE-48FA-95F9-C97FBF42A33B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF9CA915-CBCE-4E79-9594-9B214E305348}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0DB6F07F-7F4A-480D-8086-72F0AFD2DF9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{290C77DF-2FF4-43F4-AA70-880909BFF362}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C83080C-D877-4F46-BD62-65FA21C93EB2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D8C0719-EFE6-4D31-8C00-DD5908F57D2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6218300F-8BDB-47F1-B203-0501E0DAF4C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69FE93CB-84BA-4E38-B143-3E9A4B429298}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE73011D-6D25-4CF6-BF9B-AE3E134DD542}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12739,7 +12739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A2FE79-8640-47FA-819B-973D2EC1B6BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A89A48-F84D-4E51-B4A6-ACDFF19DC1FD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13988,18 +13988,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B9CC859-AAEF-4BEE-B3D3-315E462F6C53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F72872A7-A6AE-483E-AF12-26BD37632903}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{859F6DB4-492E-4DC9-9B00-3052F3F92089}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC864E24-059A-42FE-9C1B-79C2AE1DD81F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52B641B4-9602-408E-898B-8046FEE60CAC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2737D032-018B-4823-B644-A320D9E44BED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BB984AF-0A78-4F16-8AB3-1F540AC1739A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1794A466-5FA2-4B08-9A49-FB24354F38BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{952126C4-2A37-4C61-A1A3-E20FE2F0DDBE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{422FCDEF-A5A9-402A-A802-E4F19A12FEEE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AABDE95-E6B3-439B-9EB4-8C037A358342}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{902DAE03-19B1-4613-9993-1DC8D71F5DB5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1733051-1617-450C-A5FC-898A74BA1A89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03234965-F49B-4F69-A841-B1037DC51BB0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8E88C74-9249-4385-A66E-E21099995E98}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1AFD2CAD-B7D9-4B8F-911F-06BF2108DEB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F03AFF66-C68D-4AF6-BEA9-D54663FEDAD2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2ED9707-D3E5-4E7B-B927-A8AAC2A3CA53}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C89F297-076D-49AB-980A-452D5ED1489F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CD9458C-4D96-4E2E-B2F5-00EA5BE9AD23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D16A994A-8695-49C9-AE18-1663F653FFE7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{227F2E5D-06CB-4E6A-AA05-FC7E678E2AA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B03E4156-F8F7-415E-BFF6-1F869C9ABC04}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4D12A11-0173-417D-93E5-871DD0DE4C14}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14012,7 +14012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D32C9A1-2F8F-42D0-9FB0-686CDE88D82F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51936EE8-8271-401D-AA8B-013700098A34}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15259,18 +15259,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47CB73B5-E318-4819-8C12-E095D97C67E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17DB4E90-7A5A-4B9D-8F74-B5FE96FAB527}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{93631F27-03D5-4182-B2D2-6E14093D1E20}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C01D4CB5-D2BB-4C2C-8D9A-65648432C732}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74939E12-801F-4AC9-9AB2-3046257177FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F69EC98-70DD-40DC-B1B3-0FA781F5C9BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEF160E5-BA09-4CDF-A980-DACE4C6716BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD673CCE-84C4-458D-895D-BDD06FECD5D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30266DA0-2696-47BB-862E-2806F9F47230}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B2B2B84-610C-4D88-8580-E2ED40767837}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F60ED11F-1CE5-486D-A13A-0F19157CFB98}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E4A9E0C-1887-4349-AAAA-7FAF0D35BB0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2958A904-CC8C-4E20-A9ED-7A201F4B547C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6774FC2-DE0D-481B-90B4-83D9D1EC5A9F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34861790-ABF5-4420-8F6F-30C8D94F5EAF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0674B99B-4FC2-4564-AABC-6148F11E8386}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12A12859-312A-4F10-9B1A-ED3EBFE22646}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C00F94C-3214-4C86-87D3-AEAFF4DF3029}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38E26DE3-949F-401C-91EB-AE4FF3B9025D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D331C726-AF41-4BE2-A126-B12CB93788F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D62957F-8616-4DF2-9161-37779048F20E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D016D463-0E5B-4C3F-B363-390FC007544C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F722B841-0A97-4082-B770-03C2A395301F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1351F43E-0C6D-4DD9-82D1-C4E21331F2DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15283,7 +15283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BB4E92-1934-4E8A-84BA-461D6E91267C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF98D75-42B9-42F3-87C9-6F6D781F5376}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16532,18 +16532,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{991EEC07-F54B-49EB-9EDE-43A149866A4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F605CF15-2C94-4D39-937B-92C500BE4596}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1022FFC9-90FC-4D0B-99AD-C00FB08F6334}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6BDD2F6F-EA58-4E57-BF73-C0258B02F395}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B59DE79-CC70-4E76-B7D2-3FB27A197AD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CC93295-E7D4-448F-83D9-0F041D917E24}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C17E0BB5-B10E-455B-A481-2AE5FCC0D104}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E287306-C6C9-46D1-ACCD-5F01E83A5282}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A8BA1D8-F490-48DF-8639-C25597DA446F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04F4F5B8-AA3C-4DA0-B0B1-07EE074496C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC7439FE-D688-4980-840D-54AAFBD987E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61F08084-954A-431C-83A2-666ACD50DDB4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD942254-97BA-429C-ABAD-F6B9C799A432}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{463ABE1E-1318-43CB-A7AA-95B90F00DF49}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C8204DC-7351-47E1-AB7F-8A86685F5678}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F6B2F9D5-AD9D-468D-A628-5A802D331288}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EE1A303-66BC-4105-89DB-006555F5FA2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3ABC9F53-47A4-443A-925C-28664347E7A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73F3781B-FE07-4E7E-A6C3-1B3E4AAC9D8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{834DBF8E-2052-4114-9A3F-BE4569139B54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FEAAA8C-06A2-409B-BE88-8B8EA430F413}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB0C9DC1-FE77-4B89-AF9B-F87393B44FBD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31BC76B2-32B0-4087-81D8-3BE17126E172}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25711195-01D5-42D2-ADA6-9025573FEF70}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
